--- a/Data Aquisation/Mustafa Abdelaziz/downstairs0.xlsx
+++ b/Data Aquisation/Mustafa Abdelaziz/downstairs0.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8EA0DC5-3FDE-5841-A49B-9472C096CB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousef Khaled\Documents\GitHub\Human-Activity-Recognition\Data Aquisation\Mustafa Abdelaziz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885D354-A663-4F89-9E62-08226DF1DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,11 +388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="O775" sqref="O775"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4.09</v>
       </c>
@@ -401,7 +411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.13</v>
       </c>
@@ -415,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.88</v>
       </c>
@@ -429,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.37</v>
       </c>
@@ -443,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.94</v>
       </c>
@@ -457,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.72</v>
       </c>
@@ -471,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.19</v>
       </c>
@@ -485,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.01</v>
       </c>
@@ -499,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.67</v>
       </c>
@@ -513,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5499999999999998</v>
       </c>
@@ -527,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.02</v>
       </c>
@@ -541,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -555,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.56</v>
       </c>
@@ -569,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.42</v>
       </c>
@@ -583,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.75</v>
       </c>
@@ -597,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.42</v>
       </c>
@@ -611,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.31</v>
       </c>
@@ -625,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.92</v>
       </c>
@@ -639,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.17</v>
       </c>
@@ -653,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.71</v>
       </c>
@@ -667,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.91</v>
       </c>
@@ -681,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.35</v>
       </c>
@@ -695,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.73</v>
       </c>
@@ -709,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
@@ -723,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.21</v>
       </c>
@@ -737,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.83</v>
       </c>
@@ -751,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.9</v>
       </c>
@@ -765,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4.7</v>
       </c>
@@ -779,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7.1</v>
       </c>
@@ -793,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11.7</v>
       </c>
@@ -807,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6.43</v>
       </c>
@@ -821,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4.47</v>
       </c>
@@ -835,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.65</v>
       </c>
@@ -849,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4.74</v>
       </c>
@@ -863,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.61</v>
       </c>
@@ -877,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7.1</v>
       </c>
@@ -891,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.95</v>
       </c>
@@ -905,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.28</v>
       </c>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5.29</v>
       </c>
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4.8</v>
       </c>
@@ -947,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4.88</v>
       </c>
@@ -961,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4.57</v>
       </c>
@@ -975,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.09</v>
       </c>
@@ -989,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.68</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.84</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.94</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7.09</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.09</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.24</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.72</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.3899999999999997</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.17</v>
       </c>
@@ -1115,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4.13</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.89</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9.64</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.83</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.56</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4.8600000000000003</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4.28</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.71</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6.82</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6.29</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4.21</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3.73</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-1.73</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4.3</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7.01</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4.8</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.4900000000000002</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.27</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3.92</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.38</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6.55</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.58</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.15</v>
       </c>
@@ -1437,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.59</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.95</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3.76</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.67</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-0.63</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-3.69</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.33</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.27</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.38</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.44</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-3.49</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-3.19</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6.73</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.56</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.02</v>
       </c>
@@ -1647,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-1.22</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-3.17</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-2.34</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-2</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-2.95</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-2.76</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-3.28</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-2.78</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-1.46</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-0.4</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.56999999999999995</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1.01</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.23</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-0.44</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-1.01</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-1.75</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-2.66</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-3.6</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-4.38</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-4.42</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-3.41</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-2.72</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>-2.91</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-2.9</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-2.48</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-2.39</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-0.54</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>-4.4400000000000004</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>-6.1</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.48</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.33</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>-0.41</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-2.19</v>
       </c>
@@ -2109,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-1.85</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-0.77</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.85</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>-0.28999999999999998</v>
       </c>
@@ -2165,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>-1.33</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-0.95</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-0.82</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.31</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2.2599999999999998</v>
       </c>
@@ -2235,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.77</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.01</v>
       </c>
@@ -2263,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>-0.11</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>-0.32</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>-0.34</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>-0.87</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>-1.28</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>-0.82</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.95</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.3</v>
       </c>
@@ -2375,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.02</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.76</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3.32</v>
       </c>
@@ -2417,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2.4300000000000002</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>-0.47</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>-3.2</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>-3.87</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.22</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>-1.06</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>-2.42</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>-1.92</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>-1.38</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>-1.58</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>-2.37</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>-2.78</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>-2.41</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>-2.1800000000000002</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>-2.41</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>-2.35</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>-1.67</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.21</v>
       </c>
@@ -2669,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1.44</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1.81</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1.28</v>
       </c>
@@ -2711,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>-0.05</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>-1.0900000000000001</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>-2.33</v>
       </c>
@@ -2753,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>-3.34</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>-3.94</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>-4.2300000000000004</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>-5.33</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>-8.52</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>-11.54</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>-6.81</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>-0.88</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2.73</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.92</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>-0.22</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2.92</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5.14</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.32</v>
       </c>
@@ -2949,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>-1.2</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>-1.95</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>-3.6</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>-4.75</v>
       </c>
@@ -3005,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>-3.83</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>-1.55</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.77</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1.1399999999999999</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.45</v>
       </c>
@@ -3075,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>-0.23</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>-1.22</v>
       </c>
@@ -3103,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>-1.69</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>-0.37</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.88</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1.1100000000000001</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>-0.56999999999999995</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>-0.18</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.7</v>
       </c>
@@ -3215,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1.01</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -3243,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>-1.65</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>-2.35</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>-2.77</v>
       </c>
@@ -3285,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>-2.56</v>
       </c>
@@ -3299,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>-0.97</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0.14000000000000001</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0.77</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1.7</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1.0900000000000001</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>-0.42</v>
       </c>
@@ -3383,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>-1.61</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>-2.85</v>
       </c>
@@ -3411,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>-1.48</v>
       </c>
@@ -3425,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>-0.76</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>-1.78</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>-2.93</v>
       </c>
@@ -3467,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>-3.63</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>-3.87</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>-3.97</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>-3.87</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>-3.82</v>
       </c>
@@ -3537,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>-3.4</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>-1.83</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>-0.85</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>-0.18</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1.19</v>
       </c>
@@ -3607,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3.06</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>-0.78</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>-4.29</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>-4.2</v>
       </c>
@@ -3663,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>-3.34</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>-3.13</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>-3.26</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>-4</v>
       </c>
@@ -3719,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>-5.62</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>-6.64</v>
       </c>
@@ -3747,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>-5.8</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>-4.34</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>-2.52</v>
       </c>
@@ -3789,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>-0.4</v>
       </c>
@@ -3803,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.66</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.1</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0.51</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2.65</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2.06</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>-2.1800000000000002</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>-4.1900000000000004</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>-4</v>
       </c>
@@ -3915,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>-5.01</v>
       </c>
@@ -3929,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>-7.12</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>-4.84</v>
       </c>
@@ -3957,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>-1.43</v>
       </c>
@@ -3971,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>-0.54</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1.96</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2.84</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1.57</v>
       </c>
@@ -4027,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1.45</v>
       </c>
@@ -4041,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1.21</v>
       </c>
@@ -4055,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>0.51</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0.3</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>-0.39</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>-0.91</v>
       </c>
@@ -4111,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>-0.52</v>
       </c>
@@ -4125,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0.26</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>-0.69</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>-1.1499999999999999</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>-0.46</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4195,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0.83</v>
       </c>
@@ -4209,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0.38</v>
       </c>
@@ -4223,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>-1.26</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>-2.74</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>-4.1900000000000004</v>
       </c>
@@ -4265,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>-3.46</v>
       </c>
@@ -4279,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>-2.85</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>-2.76</v>
       </c>
@@ -4307,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>-0.8</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>-1.27</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>-2.58</v>
       </c>
@@ -4349,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>-2.2999999999999998</v>
       </c>
@@ -4363,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>-2.16</v>
       </c>
@@ -4377,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>-2.66</v>
       </c>
@@ -4391,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>-3.07</v>
       </c>
@@ -4405,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>-3</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>-2.89</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>-3.44</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>-3.78</v>
       </c>
@@ -4461,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>-3.22</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>-2.4</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0.75</v>
       </c>
@@ -4503,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1.71</v>
       </c>
@@ -4517,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2.42</v>
       </c>
@@ -4531,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3.65</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0.45</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>-2.68</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>-3.52</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>-3.69</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>-2.94</v>
       </c>
@@ -4615,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>-2.67</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>-5.23</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>-10.74</v>
       </c>
@@ -4657,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>-7.13</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1.55</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>-2.97</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>-0.53</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1.86</v>
       </c>
@@ -4727,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1.37</v>
       </c>
@@ -4741,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1.38</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>0.48</v>
       </c>
@@ -4769,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>0.25</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>-0.94</v>
       </c>
@@ -4797,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>-3.07</v>
       </c>
@@ -4811,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>-3.76</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>-3.07</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>-1.88</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>0.48</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2.0699999999999998</v>
       </c>
@@ -4881,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2.16</v>
       </c>
@@ -4895,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1.56</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>0.7</v>
       </c>
@@ -4923,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>-0.17</v>
       </c>
@@ -4937,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>-0.93</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>-1.29</v>
       </c>
@@ -4965,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>0.19</v>
       </c>
@@ -4979,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>0.14000000000000001</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>0.46</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>-0.02</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>-1</v>
       </c>
@@ -5049,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>-1.94</v>
       </c>
@@ -5063,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>-2.4300000000000002</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>-3.21</v>
       </c>
@@ -5091,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>-3</v>
       </c>
@@ -5105,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>-2.5499999999999998</v>
       </c>
@@ -5119,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>-2.72</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>-1.19</v>
       </c>
@@ -5147,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>0.01</v>
       </c>
@@ -5161,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>-1.77</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>-2.25</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>-1.92</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>-2.2400000000000002</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>-2.5299999999999998</v>
       </c>
@@ -5231,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>-2.83</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>-3.26</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>-3.29</v>
       </c>
@@ -5273,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>-2.57</v>
       </c>
@@ -5287,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>-2.29</v>
       </c>
@@ -5301,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>-2.5299999999999998</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>-1.74</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>-0.96</v>
       </c>
@@ -5343,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>-1.27</v>
       </c>
@@ -5357,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>-0.31</v>
       </c>
@@ -5371,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1.94</v>
       </c>
@@ -5385,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>0.55000000000000004</v>
       </c>
@@ -5399,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>-2.65</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>-3.38</v>
       </c>
@@ -5427,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>-4.28</v>
       </c>
@@ -5441,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>-5.0199999999999996</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>-5.58</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>-8.42</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>-9.02</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>-4.05</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>0.11</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>-3.53</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>-5.71</v>
       </c>
@@ -5553,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>-0.6</v>
       </c>
@@ -5567,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>6.81</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4.3099999999999996</v>
       </c>
@@ -5595,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>-0.08</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>-0.03</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>-0.54</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>-0.69</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>-1.35</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>-3.38</v>
       </c>
@@ -5679,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>-4.3899999999999997</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>-3.27</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>-1.93</v>
       </c>
@@ -5721,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>-1.35</v>
       </c>
@@ -5735,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>-0.71</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>-0.59</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>-0.22</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>0.03</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>0.23</v>
       </c>
@@ -5805,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1.18</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1.85</v>
       </c>
@@ -5833,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1.69</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>0.78</v>
       </c>
@@ -5861,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>0.44</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>-0.1</v>
       </c>
@@ -5889,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>-1.1599999999999999</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>-2.94</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>-4.47</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>-4.08</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>-3.83</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>-4.13</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>-4.95</v>
       </c>
@@ -5987,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>-6.08</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>-5.23</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>-3.21</v>
       </c>
@@ -6029,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>-0.9</v>
       </c>
@@ -6043,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>-1.1200000000000001</v>
       </c>
@@ -6057,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>-2.5299999999999998</v>
       </c>
@@ -6071,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>-4.0199999999999996</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>-4.71</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>-4.42</v>
       </c>
@@ -6113,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>-3.41</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>-2.85</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>-2.63</v>
       </c>
@@ -6155,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>-2.5499999999999998</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>-2.77</v>
       </c>
@@ -6183,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>-3.22</v>
       </c>
@@ -6197,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>-3.67</v>
       </c>
@@ -6211,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>-3.44</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>-2.4300000000000002</v>
       </c>
@@ -6239,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>-0.94</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>-2.04</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>-3.77</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>-4.17</v>
       </c>
@@ -6295,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>-4.12</v>
       </c>
@@ -6309,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>-4.2300000000000004</v>
       </c>
@@ -6323,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>-3.79</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>-2.35</v>
       </c>
@@ -6351,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>-3.21</v>
       </c>
@@ -6365,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>-6.46</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>-6.82</v>
       </c>
@@ -6393,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>-6.32</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>-5.57</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>-1.54</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2.04</v>
       </c>
@@ -6449,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2.38</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>-2.12</v>
       </c>
@@ -6477,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>-1.85</v>
       </c>
@@ -6491,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>-0.03</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1.0900000000000001</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>-0.3</v>
       </c>
@@ -6533,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>-1.22</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>-0.86</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>-1.74</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>-2.89</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>-2.1800000000000002</v>
       </c>
@@ -6603,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>-0.31</v>
       </c>
@@ -6617,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>0.57999999999999996</v>
       </c>
@@ -6631,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>-0.2</v>
       </c>
@@ -6645,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>-0.64</v>
       </c>
@@ -6659,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>0.2</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>0.81</v>
       </c>
@@ -6687,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>0.86</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>0.44</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>-0.27</v>
       </c>
@@ -6729,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>-1.33</v>
       </c>
@@ -6743,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>-1.64</v>
       </c>
@@ -6757,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>-1.9</v>
       </c>
@@ -6771,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>-1.6</v>
       </c>
@@ -6785,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>-2.06</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>-4.17</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>-4.75</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>-4.92</v>
       </c>
@@ -6841,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>-4</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>-0.94</v>
       </c>
@@ -6869,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>-0.56000000000000005</v>
       </c>
@@ -6883,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>-1.03</v>
       </c>
@@ -6897,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>-2.21</v>
       </c>
@@ -6911,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>-1.89</v>
       </c>
@@ -6925,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>-1.41</v>
       </c>
@@ -6939,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>-1.61</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>-1.76</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>-2.12</v>
       </c>
@@ -6981,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>-3</v>
       </c>
@@ -6995,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>-3.11</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>-2.71</v>
       </c>
@@ -7023,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>-2.1800000000000002</v>
       </c>
@@ -7037,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>-2.33</v>
       </c>
@@ -7051,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>0.34</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1.1399999999999999</v>
       </c>
@@ -7079,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>-0.51</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>0.17</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>-1.72</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>-4.67</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>-5.58</v>
       </c>
@@ -7149,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>-5.3</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>-6.27</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>-10.02</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>-8.82</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>-3.45</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>-1.72</v>
       </c>
@@ -7233,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>0.28999999999999998</v>
       </c>
@@ -7247,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2.75</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1.38</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2.35</v>
       </c>
@@ -7289,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>0.87</v>
       </c>
@@ -7303,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>-1.44</v>
       </c>
@@ -7317,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>-1.68</v>
       </c>
@@ -7331,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>-2.15</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>-2.89</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>-2.42</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>-1.42</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>-0.62</v>
       </c>
@@ -7401,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>-0.87</v>
       </c>
@@ -7415,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>-0.8</v>
       </c>
@@ -7429,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>0.88</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2.82</v>
       </c>
@@ -7457,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>0.01</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>-2.31</v>
       </c>
@@ -7485,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>0.46</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1.1200000000000001</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>-0.52</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>-0.49</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>-2.1800000000000002</v>
       </c>
@@ -7555,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>-3.95</v>
       </c>
@@ -7569,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>-3.63</v>
       </c>
@@ -7583,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>-3.93</v>
       </c>
@@ -7597,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>-4.66</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>-3.26</v>
       </c>
@@ -7625,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>-1.39</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>-2.2599999999999998</v>
       </c>
@@ -7653,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>-5.48</v>
       </c>
@@ -7667,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>-5.31</v>
       </c>
@@ -7681,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>-4.57</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>-4.04</v>
       </c>
@@ -7709,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>-3.07</v>
       </c>
@@ -7723,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>-2.5299999999999998</v>
       </c>
@@ -7737,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>-2.66</v>
       </c>
@@ -7751,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>-2.58</v>
       </c>
@@ -7765,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>-2.1</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>-1.97</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>-2.46</v>
       </c>
@@ -7807,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>-2.34</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>-1.62</v>
       </c>
@@ -7835,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>-2.83</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>-3.91</v>
       </c>
@@ -7863,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>-3.77</v>
       </c>
@@ -7877,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>-3.89</v>
       </c>
@@ -7891,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>-4.7699999999999996</v>
       </c>
@@ -7905,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>-6.71</v>
       </c>
@@ -7919,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>-4.24</v>
       </c>
@@ -7933,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>-0.13</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>-4.24</v>
       </c>
@@ -7961,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>0.84</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2.93</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2.73</v>
       </c>
@@ -8003,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>3.08</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2.33</v>
       </c>
@@ -8031,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>0.27</v>
       </c>
@@ -8045,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>-0.81</v>
       </c>
@@ -8059,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>0.27</v>
       </c>
@@ -8073,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1.05</v>
       </c>
@@ -8087,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1.65</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2.15</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>3.04</v>
       </c>
@@ -8129,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>3.14</v>
       </c>
@@ -8143,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2.36</v>
       </c>
@@ -8157,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1.7</v>
       </c>
@@ -8171,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>3.8</v>
       </c>
@@ -8185,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5.73</v>
       </c>
@@ -8199,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>4.8600000000000003</v>
       </c>
@@ -8213,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>3.65</v>
       </c>
@@ -8227,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>4.6399999999999997</v>
       </c>
@@ -8241,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>6.43</v>
       </c>
@@ -8255,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>3.65</v>
       </c>
@@ -8269,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2.13</v>
       </c>
@@ -8283,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>1.73</v>
       </c>
@@ -8297,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2.99</v>
       </c>
@@ -8311,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>8.27</v>
       </c>
@@ -8325,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>11.39</v>
       </c>
@@ -8339,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>10.8</v>
       </c>
@@ -8353,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>9.83</v>
       </c>
@@ -8367,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>7.36</v>
       </c>
@@ -8381,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>4.8499999999999996</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>4.96</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>6.06</v>
       </c>
@@ -8423,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>6.22</v>
       </c>
@@ -8437,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>7.64</v>
       </c>
@@ -8451,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>8.2200000000000006</v>
       </c>
@@ -8465,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>6.23</v>
       </c>
@@ -8479,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>5.69</v>
       </c>
@@ -8493,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>3.18</v>
       </c>
@@ -8507,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>4.93</v>
       </c>
@@ -8521,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>8.82</v>
       </c>
@@ -8535,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>6.77</v>
       </c>
@@ -8549,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>7.26</v>
       </c>
@@ -8563,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>8.09</v>
       </c>
@@ -8577,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>11.42</v>
       </c>
@@ -8591,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>8.08</v>
       </c>
@@ -8605,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>3.54</v>
       </c>
@@ -8619,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>-0.14000000000000001</v>
       </c>
@@ -8633,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>-0.28999999999999998</v>
       </c>
@@ -8647,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>6.5</v>
       </c>
@@ -8661,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>10.41</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>8.34</v>
       </c>
@@ -8689,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>5.51</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>3.34</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>3.04</v>
       </c>
@@ -8731,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>4.2699999999999996</v>
       </c>
@@ -8745,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>3.58</v>
       </c>
@@ -8759,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>3.69</v>
       </c>
@@ -8773,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>4.68</v>
       </c>
@@ -8787,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2.72</v>
       </c>
@@ -8801,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2.58</v>
       </c>
@@ -8815,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2.86</v>
       </c>
@@ -8829,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>5.3</v>
       </c>
@@ -8843,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>7.36</v>
       </c>
@@ -8857,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>6.39</v>
       </c>
@@ -8871,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>5.0599999999999996</v>
       </c>
@@ -8885,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2.96</v>
       </c>
@@ -8899,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2.1</v>
       </c>
@@ -8913,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2.86</v>
       </c>
@@ -8927,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>3.09</v>
       </c>
@@ -8941,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>3.15</v>
       </c>
@@ -8955,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>3.65</v>
       </c>
@@ -8969,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>3.55</v>
       </c>
@@ -8983,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>3.05</v>
       </c>
@@ -8997,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>3.21</v>
       </c>
@@ -9011,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>3.37</v>
       </c>
@@ -9025,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>4.29</v>
       </c>
@@ -9039,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>4.4800000000000004</v>
       </c>
@@ -9053,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>5.65</v>
       </c>
@@ -9067,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>5.83</v>
       </c>
@@ -9081,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>4.7699999999999996</v>
       </c>
@@ -9095,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>3.22</v>
       </c>
@@ -9109,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>3.75</v>
       </c>
@@ -9123,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>4.99</v>
       </c>
@@ -9137,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>4.88</v>
       </c>
@@ -9151,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>3.57</v>
       </c>
@@ -9165,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2.52</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>4.3600000000000003</v>
       </c>
@@ -9193,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>3.97</v>
       </c>
@@ -9207,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2.2799999999999998</v>
       </c>
@@ -9221,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>6.63</v>
       </c>
@@ -9235,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>11.89</v>
       </c>
@@ -9249,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>5.29</v>
       </c>
@@ -9263,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>6.03</v>
       </c>
@@ -9277,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>7.61</v>
       </c>
@@ -9291,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>7.54</v>
       </c>
@@ -9305,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>7.74</v>
       </c>
@@ -9319,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>6.17</v>
       </c>
@@ -9333,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>4.54</v>
       </c>
@@ -9347,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>3.34</v>
       </c>
@@ -9361,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2.61</v>
       </c>
@@ -9375,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2.89</v>
       </c>
@@ -9389,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2.48</v>
       </c>
@@ -9403,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>1.77</v>
       </c>
@@ -9417,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>1.1100000000000001</v>
       </c>
@@ -9431,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>1.36</v>
       </c>
@@ -9445,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2.1800000000000002</v>
       </c>
@@ -9459,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2.39</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>1.8</v>
       </c>
@@ -9487,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>1.87</v>
       </c>
@@ -9501,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>1.7</v>
       </c>
@@ -9515,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>3.46</v>
       </c>
@@ -9529,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>5.97</v>
       </c>
@@ -9543,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>7.56</v>
       </c>
@@ -9557,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>8.81</v>
       </c>
@@ -9571,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>7.54</v>
       </c>
@@ -9585,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>5.58</v>
       </c>
@@ -9599,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>3.95</v>
       </c>
@@ -9613,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>3.47</v>
       </c>
@@ -9627,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>4.22</v>
       </c>
@@ -9641,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>5.31</v>
       </c>
@@ -9655,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>4.24</v>
       </c>
@@ -9669,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2.35</v>
       </c>
@@ -9683,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>3.82</v>
       </c>
@@ -9697,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>3.97</v>
       </c>
@@ -9711,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>3.52</v>
       </c>
@@ -9725,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>4.91</v>
       </c>
@@ -9739,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>5.75</v>
       </c>
@@ -9753,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>5.64</v>
       </c>
@@ -9767,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>5.31</v>
       </c>
@@ -9781,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>5.0599999999999996</v>
       </c>
@@ -9795,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>5.43</v>
       </c>
@@ -9809,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>5.32</v>
       </c>
@@ -9823,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>4.1500000000000004</v>
       </c>
@@ -9837,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>5.66</v>
       </c>
@@ -9851,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>5.56</v>
       </c>
@@ -9865,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>3.87</v>
       </c>
@@ -9879,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>3.36</v>
       </c>
@@ -9893,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2.56</v>
       </c>
@@ -9907,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2.19</v>
       </c>
@@ -9921,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2.65</v>
       </c>
@@ -9935,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>3.39</v>
       </c>
@@ -9949,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>4.91</v>
       </c>
@@ -9963,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>5.75</v>
       </c>
@@ -9977,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>5.84</v>
       </c>
@@ -9991,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>6.22</v>
       </c>
@@ -10005,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>6.13</v>
       </c>
@@ -10019,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>5.71</v>
       </c>
@@ -10033,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>5.69</v>
       </c>
@@ -10047,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>5.52</v>
       </c>
@@ -10061,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>4.21</v>
       </c>
@@ -10075,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2.96</v>
       </c>
@@ -10089,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>3.52</v>
       </c>
@@ -10103,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>4.9000000000000004</v>
       </c>
@@ -10117,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>4.37</v>
       </c>
@@ -10131,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>4.62</v>
       </c>
@@ -10145,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>4.9800000000000004</v>
       </c>
@@ -10159,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>4.5</v>
       </c>
@@ -10173,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>4.3899999999999997</v>
       </c>
@@ -10187,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>4.71</v>
       </c>
@@ -10201,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>4.1500000000000004</v>
       </c>
@@ -10215,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>3.58</v>
       </c>
@@ -10229,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>3.04</v>
       </c>
@@ -10243,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2.4300000000000002</v>
       </c>
@@ -10257,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>3.36</v>
       </c>
@@ -10271,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>4.4800000000000004</v>
       </c>
@@ -10285,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>3.47</v>
       </c>
@@ -10299,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>3.14</v>
       </c>
@@ -10313,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>3.83</v>
       </c>
@@ -10327,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>3.49</v>
       </c>
@@ -10341,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>2.41</v>
       </c>
@@ -10355,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>2.12</v>
       </c>
@@ -10369,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>2.5499999999999998</v>
       </c>
@@ -10383,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>2.83</v>
       </c>
@@ -10397,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>3.25</v>
       </c>
@@ -10411,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>3.4</v>
       </c>
@@ -10425,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>2.99</v>
       </c>
@@ -10439,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>2.74</v>
       </c>
@@ -10453,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>2.74</v>
       </c>
@@ -10467,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>3</v>
       </c>
@@ -10481,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>3.15</v>
       </c>
@@ -10495,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>2.9</v>
       </c>
@@ -10509,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>2.56</v>
       </c>
@@ -10523,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>2.64</v>
       </c>
@@ -10537,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>2.79</v>
       </c>
@@ -10551,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2.72</v>
       </c>
@@ -10565,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>2.61</v>
       </c>
@@ -10579,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>2.67</v>
       </c>
@@ -10593,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2.76</v>
       </c>
@@ -10607,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>2.52</v>
       </c>
@@ -10621,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>2.54</v>
       </c>
@@ -10635,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>2.61</v>
       </c>
@@ -10649,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>2.41</v>
       </c>
@@ -10663,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>2.4900000000000002</v>
       </c>
@@ -10677,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2.63</v>
       </c>
@@ -10691,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>2.5299999999999998</v>
       </c>
@@ -10705,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>2.48</v>
       </c>
@@ -10719,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2.66</v>
       </c>
@@ -10733,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>3.2</v>
       </c>
@@ -10747,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>3.57</v>
       </c>
@@ -10761,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>3.7</v>
       </c>
@@ -10775,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>3.57</v>
       </c>
@@ -10789,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>4.17</v>
       </c>
@@ -10803,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>3.88</v>
       </c>
@@ -10817,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2.78</v>
       </c>
@@ -10831,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>2.76</v>
       </c>
@@ -10845,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>4.1900000000000004</v>
       </c>
@@ -10859,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>4.46</v>
       </c>
@@ -10873,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>3.79</v>
       </c>
@@ -10887,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>3.65</v>
       </c>
@@ -10901,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>3.17</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>2.62</v>
       </c>
@@ -10929,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>3.11</v>
       </c>
@@ -10943,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>4.3099999999999996</v>
       </c>
@@ -10957,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>4.21</v>
       </c>
@@ -10971,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>3.96</v>
       </c>
@@ -10985,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>3.36</v>
       </c>
@@ -10999,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>3.23</v>
       </c>
@@ -11013,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>4.5599999999999996</v>
       </c>
@@ -11027,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>5.28</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>4.5199999999999996</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>3.28</v>
       </c>
@@ -11069,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>3.07</v>
       </c>
@@ -11083,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>3.94</v>
       </c>
@@ -11097,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>4.62</v>
       </c>
@@ -11111,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>4.68</v>
       </c>
@@ -11125,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>3.96</v>
       </c>
@@ -11139,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>2.85</v>
       </c>
@@ -11153,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2.5099999999999998</v>
       </c>
@@ -11167,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>3.17</v>
       </c>
@@ -11181,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>4.43</v>
       </c>
@@ -11195,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>5.5</v>
       </c>
@@ -11209,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>5.65</v>
       </c>
@@ -11223,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>4.7300000000000004</v>
       </c>
@@ -11237,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>4.07</v>
       </c>
@@ -11251,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>4.1399999999999997</v>
       </c>
@@ -11265,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>4.26</v>
       </c>
@@ -11279,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>4.26</v>
       </c>
@@ -11293,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>4.08</v>
       </c>
@@ -11307,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>3.9</v>
       </c>
@@ -11321,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>4.0999999999999996</v>
       </c>
@@ -11335,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>3.87</v>
       </c>
@@ -11349,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>2.62</v>
       </c>
@@ -11363,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>2.48</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>3.45</v>
       </c>
@@ -11391,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>3.27</v>
       </c>
@@ -11405,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>3.61</v>
       </c>
@@ -11419,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>3.88</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>3.43</v>
       </c>
@@ -11447,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>2.99</v>
       </c>
@@ -11461,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>3.07</v>
       </c>
@@ -11475,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>3.06</v>
       </c>
@@ -11489,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>3.25</v>
       </c>
@@ -11503,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>3.52</v>
       </c>
@@ -11517,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>3.06</v>
       </c>
@@ -11531,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>2.63</v>
       </c>
@@ -11545,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>2.59</v>
       </c>
@@ -11559,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>2.66</v>
       </c>
@@ -11573,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>2.71</v>
       </c>
@@ -11587,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>2.75</v>
       </c>
@@ -11601,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>2.5499999999999998</v>
       </c>
@@ -11615,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>2.2799999999999998</v>
       </c>
@@ -11629,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>2.4500000000000002</v>
       </c>
@@ -11643,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>1.78</v>
       </c>
@@ -11657,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>1.1399999999999999</v>
       </c>
